--- a/Traffic Statistics from GOV.uk.xlsx
+++ b/Traffic Statistics from GOV.uk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohak.roy\Sumo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977D7150-98D9-4A65-A693-2732AF907B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D05A99-F8CD-452B-91C5-C74911667272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D5C772E-2CA1-4EF9-94D4-320D6CC14714}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Cars and Taxis</t>
   </si>
@@ -63,13 +63,37 @@
   </si>
   <si>
     <t>Probability</t>
+  </si>
+  <si>
+    <t>Vehicle Numbers</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>Heavy Goods Vehciles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus </t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicycles </t>
+  </si>
+  <si>
+    <t>Van</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +116,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -106,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,17 +146,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,86 +491,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A989722-36F9-4D19-8868-B1B3EF4DCC7B}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>181</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1">
-        <f>E1/E5</f>
-        <v>0.40044247787610621</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>104</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="I2">
-        <f>E2/E5</f>
-        <v>0.23008849557522124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>E2/E6</f>
+        <v>0.40044247787610621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="I3">
-        <f>E3/E5</f>
+        <f>E3/E6</f>
+        <v>0.23008849557522124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>167</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <f>E4/E6</f>
         <v>0.36946902654867259</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <f>SUM(E1:E3)</f>
+      <c r="E6">
+        <f>SUM(E2:E4)</f>
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="D15" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
